--- a/extract/permits-by-sector-2024.xlsx
+++ b/extract/permits-by-sector-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://djei.cloud.gov.ie/apps/eDocs/S/ENT218/Files/ENT218-001-2023/Web Stats 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naughtm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8D703D-F2AE-4A23-ABA7-DD493770AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2E616-6F9B-4B7F-9C8F-68F41790A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{4257A6EE-3387-495C-823D-AD167D895949}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C85BE44-227A-4AF2-BEF5-0A9937ED3A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Grand Total</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
   </si>
   <si>
     <t>Economic Sector</t>
@@ -144,7 +147,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,39 +220,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,673 +581,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B5D8D-6B00-4721-9631-04860DBBCA4C}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6159C45-D034-4D34-B499-2A65B7C8CD64}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>19303</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3423</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3453</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2959</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3507</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2938</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1859</v>
+      </c>
+      <c r="C4" s="8">
+        <v>252</v>
+      </c>
+      <c r="D4" s="8">
+        <v>591</v>
+      </c>
+      <c r="E4" s="8">
+        <v>158</v>
+      </c>
+      <c r="F4" s="8">
+        <v>205</v>
+      </c>
+      <c r="G4" s="8">
+        <v>372</v>
+      </c>
+      <c r="H4" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>476</v>
+      </c>
+      <c r="C6" s="8">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8">
+        <v>107</v>
+      </c>
+      <c r="E6" s="8">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8">
+        <v>96</v>
+      </c>
+      <c r="G6" s="8">
+        <v>91</v>
+      </c>
+      <c r="H6" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
+        <v>363</v>
+      </c>
+      <c r="C7" s="8">
+        <v>69</v>
+      </c>
+      <c r="D7" s="8">
+        <v>56</v>
+      </c>
+      <c r="E7" s="8">
+        <v>60</v>
+      </c>
+      <c r="F7" s="8">
+        <v>66</v>
+      </c>
+      <c r="G7" s="8">
+        <v>56</v>
+      </c>
+      <c r="H7" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>271</v>
+      </c>
+      <c r="C8" s="8">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8">
+        <v>78</v>
+      </c>
+      <c r="G8" s="8">
+        <v>31</v>
+      </c>
+      <c r="H8" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>198</v>
+      </c>
+      <c r="C9" s="8">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>165</v>
+      </c>
+      <c r="C10" s="8">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <v>233</v>
+      </c>
+      <c r="C11" s="8">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8">
+        <v>53</v>
+      </c>
+      <c r="G11" s="8">
+        <v>27</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
+        <v>664</v>
+      </c>
+      <c r="C13" s="8">
+        <v>96</v>
+      </c>
+      <c r="D13" s="8">
+        <v>87</v>
+      </c>
+      <c r="E13" s="8">
+        <v>79</v>
+      </c>
+      <c r="F13" s="8">
+        <v>133</v>
+      </c>
+      <c r="G13" s="8">
+        <v>149</v>
+      </c>
+      <c r="H13" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <v>215</v>
+      </c>
+      <c r="C14" s="8">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <v>41</v>
+      </c>
+      <c r="H14" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>534</v>
+      </c>
+      <c r="C15" s="8">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8">
+        <v>108</v>
+      </c>
+      <c r="G15" s="8">
+        <v>133</v>
+      </c>
+      <c r="H15" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1458</v>
+      </c>
+      <c r="C16" s="8">
+        <v>226</v>
+      </c>
+      <c r="D16" s="8">
+        <v>279</v>
+      </c>
+      <c r="E16" s="8">
+        <v>131</v>
+      </c>
+      <c r="F16" s="8">
+        <v>291</v>
+      </c>
+      <c r="G16" s="8">
+        <v>343</v>
+      </c>
+      <c r="H16" s="8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3282</v>
+      </c>
+      <c r="C17" s="8">
+        <v>592</v>
+      </c>
+      <c r="D17" s="8">
+        <v>511</v>
+      </c>
+      <c r="E17" s="8">
+        <v>601</v>
+      </c>
+      <c r="F17" s="8">
+        <v>663</v>
+      </c>
+      <c r="G17" s="8">
+        <v>374</v>
+      </c>
+      <c r="H17" s="8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1035</v>
+      </c>
+      <c r="C18" s="8">
+        <v>162</v>
+      </c>
+      <c r="D18" s="8">
+        <v>149</v>
+      </c>
+      <c r="E18" s="8">
+        <v>235</v>
+      </c>
+      <c r="F18" s="8">
+        <v>182</v>
+      </c>
+      <c r="G18" s="8">
+        <v>140</v>
+      </c>
+      <c r="H18" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8">
+        <v>424</v>
+      </c>
+      <c r="C20" s="8">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8">
+        <v>76</v>
+      </c>
+      <c r="E20" s="8">
+        <v>94</v>
+      </c>
+      <c r="F20" s="8">
+        <v>75</v>
+      </c>
+      <c r="G20" s="8">
+        <v>60</v>
+      </c>
+      <c r="H20" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8">
+        <v>91</v>
+      </c>
+      <c r="C21" s="8">
+        <v>13</v>
+      </c>
+      <c r="D21" s="8">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8">
+        <v>46</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8">
+        <v>10</v>
+      </c>
+      <c r="H22" s="8">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>16280</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3422</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3454</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2959</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3506</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1579</v>
-      </c>
-      <c r="C5" s="9">
-        <v>252</v>
-      </c>
-      <c r="D5" s="9">
-        <v>592</v>
-      </c>
-      <c r="E5" s="9">
-        <v>158</v>
-      </c>
-      <c r="F5" s="9">
-        <v>205</v>
-      </c>
-      <c r="G5" s="9">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8">
+        <v>149</v>
+      </c>
+      <c r="C24" s="8">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8">
+        <v>38</v>
+      </c>
+      <c r="E24" s="8">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
+        <v>20</v>
+      </c>
+      <c r="H24" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6809</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1431</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1089</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1211</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1144</v>
+      </c>
+      <c r="G25" s="8">
+        <v>874</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <v>268</v>
+      </c>
+      <c r="C26" s="8">
+        <v>18</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44</v>
+      </c>
+      <c r="E26" s="8">
+        <v>39</v>
+      </c>
+      <c r="F26" s="8">
+        <v>79</v>
+      </c>
+      <c r="G26" s="8">
+        <v>51</v>
+      </c>
+      <c r="H26" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <v>676</v>
+      </c>
+      <c r="C27" s="8">
+        <v>113</v>
+      </c>
+      <c r="D27" s="8">
+        <v>115</v>
+      </c>
+      <c r="E27" s="8">
+        <v>87</v>
+      </c>
+      <c r="F27" s="8">
+        <v>140</v>
+      </c>
+      <c r="G27" s="8">
+        <v>117</v>
+      </c>
+      <c r="H27" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9">
-        <v>401</v>
-      </c>
-      <c r="C7" s="9">
-        <v>58</v>
-      </c>
-      <c r="D7" s="9">
-        <v>107</v>
-      </c>
-      <c r="E7" s="9">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9">
-        <v>96</v>
-      </c>
-      <c r="G7" s="9">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9">
-        <v>306</v>
-      </c>
-      <c r="C8" s="9">
-        <v>69</v>
-      </c>
-      <c r="D8" s="9">
-        <v>56</v>
-      </c>
-      <c r="E8" s="9">
-        <v>60</v>
-      </c>
-      <c r="F8" s="9">
-        <v>65</v>
-      </c>
-      <c r="G8" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9">
-        <v>230</v>
-      </c>
-      <c r="C9" s="9">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9">
-        <v>50</v>
-      </c>
-      <c r="E9" s="9">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9">
-        <v>78</v>
-      </c>
-      <c r="G9" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9">
-        <v>175</v>
-      </c>
-      <c r="C10" s="9">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9">
-        <v>27</v>
-      </c>
-      <c r="F10" s="9">
-        <v>44</v>
-      </c>
-      <c r="G10" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9">
-        <v>146</v>
-      </c>
-      <c r="C11" s="9">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9">
-        <v>23</v>
-      </c>
-      <c r="E11" s="9">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9">
-        <v>62</v>
-      </c>
-      <c r="G11" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9">
-        <v>190</v>
-      </c>
-      <c r="C12" s="9">
-        <v>41</v>
-      </c>
-      <c r="D12" s="9">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9">
-        <v>35</v>
-      </c>
-      <c r="F12" s="9">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9">
-        <v>9</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="9">
-        <v>544</v>
-      </c>
-      <c r="C14" s="9">
-        <v>96</v>
-      </c>
-      <c r="D14" s="9">
-        <v>87</v>
-      </c>
-      <c r="E14" s="9">
-        <v>79</v>
-      </c>
-      <c r="F14" s="9">
-        <v>133</v>
-      </c>
-      <c r="G14" s="9">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
-        <v>157</v>
-      </c>
-      <c r="C15" s="9">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9">
-        <v>43</v>
-      </c>
-      <c r="E15" s="9">
-        <v>19</v>
-      </c>
-      <c r="F15" s="9">
-        <v>21</v>
-      </c>
-      <c r="G15" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9">
-        <v>425</v>
-      </c>
-      <c r="C16" s="9">
-        <v>78</v>
-      </c>
-      <c r="D16" s="9">
-        <v>68</v>
-      </c>
-      <c r="E16" s="9">
-        <v>38</v>
-      </c>
-      <c r="F16" s="9">
-        <v>108</v>
-      </c>
-      <c r="G16" s="9">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1270</v>
-      </c>
-      <c r="C17" s="9">
-        <v>226</v>
-      </c>
-      <c r="D17" s="9">
-        <v>279</v>
-      </c>
-      <c r="E17" s="9">
-        <v>131</v>
-      </c>
-      <c r="F17" s="9">
-        <v>291</v>
-      </c>
-      <c r="G17" s="9">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2741</v>
-      </c>
-      <c r="C18" s="9">
-        <v>592</v>
-      </c>
-      <c r="D18" s="9">
-        <v>511</v>
-      </c>
-      <c r="E18" s="9">
-        <v>601</v>
-      </c>
-      <c r="F18" s="9">
-        <v>663</v>
-      </c>
-      <c r="G18" s="9">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9">
-        <v>868</v>
-      </c>
-      <c r="C19" s="9">
-        <v>162</v>
-      </c>
-      <c r="D19" s="9">
-        <v>149</v>
-      </c>
-      <c r="E19" s="9">
-        <v>235</v>
-      </c>
-      <c r="F19" s="9">
-        <v>182</v>
-      </c>
-      <c r="G19" s="9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="9">
-        <v>378</v>
-      </c>
-      <c r="C21" s="9">
-        <v>73</v>
-      </c>
-      <c r="D21" s="9">
-        <v>76</v>
-      </c>
-      <c r="E21" s="9">
-        <v>94</v>
-      </c>
-      <c r="F21" s="9">
-        <v>75</v>
-      </c>
-      <c r="G21" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9">
-        <v>75</v>
-      </c>
-      <c r="C22" s="9">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9">
-        <v>17</v>
-      </c>
-      <c r="E22" s="9">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9">
-        <v>16</v>
-      </c>
-      <c r="G22" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="9">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9">
-        <v>5</v>
-      </c>
-      <c r="D23" s="9">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9">
-        <v>6</v>
-      </c>
-      <c r="F23" s="9">
-        <v>8</v>
-      </c>
-      <c r="G23" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9">
-        <v>11</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9">
-        <v>127</v>
-      </c>
-      <c r="C25" s="9">
-        <v>22</v>
-      </c>
-      <c r="D25" s="9">
-        <v>38</v>
-      </c>
-      <c r="E25" s="9">
-        <v>17</v>
-      </c>
-      <c r="F25" s="9">
-        <v>30</v>
-      </c>
-      <c r="G25" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9">
-        <v>5749</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1430</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1089</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1211</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1144</v>
-      </c>
-      <c r="G26" s="9">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="9">
-        <v>231</v>
-      </c>
-      <c r="C27" s="9">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9">
-        <v>44</v>
-      </c>
-      <c r="E27" s="9">
-        <v>39</v>
-      </c>
-      <c r="F27" s="9">
-        <v>79</v>
-      </c>
-      <c r="G27" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="9">
-        <v>572</v>
-      </c>
-      <c r="C28" s="9">
-        <v>113</v>
-      </c>
-      <c r="D28" s="9">
-        <v>115</v>
-      </c>
-      <c r="E28" s="9">
-        <v>87</v>
-      </c>
-      <c r="F28" s="9">
-        <v>140</v>
-      </c>
-      <c r="G28" s="9">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="73" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3888e2271718c75706e7830fa90915bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24d65fe50479ab95a2d5ce6889527e7" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="109" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="57ce4dbe6534106c1e25e2f9bfddcf27">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d4496fe659c0b9ca30f08c915fd27f6" ns2:_="">
     <xsd:import namespace="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1443,24 +1532,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistics</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9ba6f678-e647-4dac-946a-fcabffeb8025</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">#Reports</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">139e42fd-3e09-4439-bba7-8aeac7f033ff</TermId>
+        </TermInfo>
+      </Terms>
     </m02c691f3efa402dab5cbaa8c240a9e7>
     <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Value>8</Value>
       <Value>5</Value>
+      <Value>10</Value>
       <Value>1</Value>
+      <Value>7</Value>
     </TaxCatchAll>
     <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
     <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
@@ -1476,9 +1568,14 @@
     </fbaa881fc4ae443f9fdafbdd527793df>
     <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
     <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">720401db-42e9-4f5b-a7dd-0e2a6af555be</TermId>
+        </TermInfo>
+      </Terms>
     </nb1b8a72855341e18dd75ce464e281f2>
-    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">ENT218-001-2023</eDocs_eFileName>
     <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -1492,7 +1589,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666BC88D-B0DF-4596-9C57-504128131BC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A181DA96-208D-4EA2-B005-DE91097D5396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20307AEE-8951-4A0E-8674-159F104BA207}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1509,24 +1614,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A3B71A0-F1AF-4AA6-B836-818F79757803}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{018FEA56-7D14-4179-B56D-63B9F65B9981}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627095E5-D6B0-4D69-8CAA-7AD2AFD60E6A}">
-  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
